--- a/biology/Zoologie/Cephalotes_cristatus/Cephalotes_cristatus.xlsx
+++ b/biology/Zoologie/Cephalotes_cristatus/Cephalotes_cristatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cephalotes cristatus est une espèce de fourmis arboricoles du genre Cephalotes[1][2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cephalotes cristatus est une espèce de fourmis arboricoles du genre Cephalotes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est trouvée dans une géographie spécifique d'Amérique centrale et d'Amérique du sud, de la région mexicaine de San Luis Potosi au Nord, jusqu'à la région bolivienne de Vichada au Sud de son aire naturelle d'implantation, en passant par l'île de Trinidad et Tobago à l'Est, où l'espèce est également endémique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est trouvée dans une géographie spécifique d'Amérique centrale et d'Amérique du sud, de la région mexicaine de San Luis Potosi au Nord, jusqu'à la région bolivienne de Vichada au Sud de son aire naturelle d'implantation, en passant par l'île de Trinidad et Tobago à l'Est, où l'espèce est également endémique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres[4]. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme les autres espèces du genre Cephalotes, elles sont caractérisées par l'existence de soldats spécialisés dotés d'une tête surdimensionnée et plate ainsi que des pattes plus plates et plus larges que leurs cousines terrestres. Elles peuvent ainsi se déplacer d'un arbre à un autre dans une forêt.
 Elle fut décrite et classifiée pour la première fois par l'entomologiste italien Carlo Emery en 1890.
 </t>
         </is>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
